--- a/Code/Results/Cases/Case_0_75/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_75/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1422364152233087</v>
+        <v>0.04904822163325662</v>
       </c>
       <c r="D2">
-        <v>0.1464173325018834</v>
+        <v>0.2150398836567859</v>
       </c>
       <c r="E2">
-        <v>0.0760138191341504</v>
+        <v>0.1577557748486988</v>
       </c>
       <c r="F2">
-        <v>0.4885635899741274</v>
+        <v>1.098088969301038</v>
       </c>
       <c r="G2">
-        <v>0.2591655039762131</v>
+        <v>0.5478667889177586</v>
       </c>
       <c r="H2">
-        <v>0.2380640458653573</v>
+        <v>0.6919128742687448</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05847384775252706</v>
+        <v>0.1587236157017031</v>
       </c>
       <c r="K2">
-        <v>3.702417823059136</v>
+        <v>1.264877204211814</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8189125209890946</v>
+        <v>0.3963371515211236</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9970589504928427</v>
+        <v>2.452149567775407</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1231828319946686</v>
+        <v>0.04357218035039523</v>
       </c>
       <c r="D3">
-        <v>0.1335361896791909</v>
+        <v>0.2123531160951586</v>
       </c>
       <c r="E3">
-        <v>0.07254934462802609</v>
+        <v>0.1580148820677998</v>
       </c>
       <c r="F3">
-        <v>0.4774249103464285</v>
+        <v>1.107628383791486</v>
       </c>
       <c r="G3">
-        <v>0.2534447535201778</v>
+        <v>0.554649574212128</v>
       </c>
       <c r="H3">
-        <v>0.2428175832730162</v>
+        <v>0.6999168003676317</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05895129087555162</v>
+        <v>0.1604476692235615</v>
       </c>
       <c r="K3">
-        <v>3.228178148055292</v>
+        <v>1.111272602920906</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7130764980103379</v>
+        <v>0.364008585198242</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9944511727878904</v>
+        <v>2.482981324815299</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1115742040747136</v>
+        <v>0.04022327421418481</v>
       </c>
       <c r="D4">
-        <v>0.1257280588626344</v>
+        <v>0.2107731110297237</v>
       </c>
       <c r="E4">
-        <v>0.07054276887937405</v>
+        <v>0.1582495810300522</v>
       </c>
       <c r="F4">
-        <v>0.4720540996583296</v>
+        <v>1.114257136937795</v>
       </c>
       <c r="G4">
-        <v>0.2510715032146678</v>
+        <v>0.5593307832977743</v>
       </c>
       <c r="H4">
-        <v>0.2464306317134515</v>
+        <v>0.7052314136264073</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05941003126489619</v>
+        <v>0.1616012591945655</v>
       </c>
       <c r="K4">
-        <v>2.9369777753069</v>
+        <v>1.016639218084151</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6482024232780645</v>
+        <v>0.3441705635275412</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9967084299659632</v>
+        <v>2.503834580801595</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1068632373567056</v>
+        <v>0.0388619440559097</v>
       </c>
       <c r="D5">
-        <v>0.1225699611015401</v>
+        <v>0.2101468542831881</v>
       </c>
       <c r="E5">
-        <v>0.06975403321354179</v>
+        <v>0.1583642538953178</v>
       </c>
       <c r="F5">
-        <v>0.4702164231728929</v>
+        <v>1.117152235090536</v>
       </c>
       <c r="G5">
-        <v>0.2503749129637143</v>
+        <v>0.561367998431507</v>
       </c>
       <c r="H5">
-        <v>0.2480704339834006</v>
+        <v>0.7074977416082291</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05963686849761274</v>
+        <v>0.1620952355367749</v>
       </c>
       <c r="K5">
-        <v>2.818274237620841</v>
+        <v>0.9779976586054886</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.621784559295925</v>
+        <v>0.3360899392158743</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9985497015572378</v>
+        <v>2.512815109786331</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.106082084337757</v>
+        <v>0.03863610030231257</v>
       </c>
       <c r="D6">
-        <v>0.1220469523601579</v>
+        <v>0.2100439308608841</v>
       </c>
       <c r="E6">
-        <v>0.06962477451582849</v>
+        <v>0.1583844452415111</v>
       </c>
       <c r="F6">
-        <v>0.4699319586225172</v>
+        <v>1.117644665458343</v>
       </c>
       <c r="G6">
-        <v>0.2502751316592864</v>
+        <v>0.5617140940216601</v>
       </c>
       <c r="H6">
-        <v>0.2483526333438419</v>
+        <v>0.7078801370699139</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05967689494082151</v>
+        <v>0.1621787017868748</v>
       </c>
       <c r="K6">
-        <v>2.798560446028461</v>
+        <v>0.9715766438862659</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6173987873839195</v>
+        <v>0.3347483872520982</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9989097116436625</v>
+        <v>2.514335448994615</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1115105947487933</v>
+        <v>0.04020490116032249</v>
       </c>
       <c r="D7">
-        <v>0.1256853734272312</v>
+        <v>0.2107645937025637</v>
       </c>
       <c r="E7">
-        <v>0.0705320162205858</v>
+        <v>0.1582510504662409</v>
       </c>
       <c r="F7">
-        <v>0.472027918541059</v>
+        <v>1.114295396679452</v>
       </c>
       <c r="G7">
-        <v>0.2510610339333894</v>
+        <v>0.5593577336190805</v>
       </c>
       <c r="H7">
-        <v>0.2464520778309023</v>
+        <v>0.7052615709365142</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0594129311721332</v>
+        <v>0.1616078244641592</v>
       </c>
       <c r="K7">
-        <v>2.935377089896718</v>
+        <v>1.016118395500115</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6478460775302679</v>
+        <v>0.3440615703729506</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9967295940085563</v>
+        <v>2.503953742097536</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1356460834016815</v>
+        <v>0.04715730191674083</v>
       </c>
       <c r="D8">
-        <v>0.1419539668310534</v>
+        <v>0.2140990743388187</v>
       </c>
       <c r="E8">
-        <v>0.07479338491758725</v>
+        <v>0.1578294342764046</v>
       </c>
       <c r="F8">
-        <v>0.4844069408598983</v>
+        <v>1.101217925346134</v>
       </c>
       <c r="G8">
-        <v>0.2569466767728343</v>
+        <v>0.5500980989123718</v>
       </c>
       <c r="H8">
-        <v>0.2395545433597164</v>
+        <v>0.6945895453361786</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05860302809537998</v>
+        <v>0.159298341406604</v>
       </c>
       <c r="K8">
-        <v>3.53888230263027</v>
+        <v>1.211982202247157</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7823920327969631</v>
+        <v>0.3851881218608995</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9953288512825225</v>
+        <v>2.462380905176076</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1838412048138167</v>
+        <v>0.06089776901349353</v>
       </c>
       <c r="D9">
-        <v>0.1747360300615526</v>
+        <v>0.2211875795123746</v>
       </c>
       <c r="E9">
-        <v>0.08417274685439935</v>
+        <v>0.1576018437688269</v>
       </c>
       <c r="F9">
-        <v>0.5212030993851329</v>
+        <v>1.081703099948257</v>
       </c>
       <c r="G9">
-        <v>0.2782880862961292</v>
+        <v>0.5360525144575945</v>
       </c>
       <c r="H9">
-        <v>0.2318777099896678</v>
+        <v>0.6768389332436158</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05841148388914874</v>
+        <v>0.1555239397082175</v>
       </c>
       <c r="K9">
-        <v>4.723909240360399</v>
+        <v>1.59343712896964</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.047542431114351</v>
+        <v>0.4659111152231787</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.025519897333453</v>
+        <v>2.396144412355426</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2199997209067561</v>
+        <v>0.07105968062690238</v>
       </c>
       <c r="D10">
-        <v>0.1994755573996798</v>
+        <v>0.2267268712667772</v>
       </c>
       <c r="E10">
-        <v>0.09178468726338096</v>
+        <v>0.1577991947337658</v>
       </c>
       <c r="F10">
-        <v>0.557153471158216</v>
+        <v>1.071115004803048</v>
       </c>
       <c r="G10">
-        <v>0.3010618090324613</v>
+        <v>0.5282597451557507</v>
       </c>
       <c r="H10">
-        <v>0.2303039122966908</v>
+        <v>0.6657371925718962</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05924411718958211</v>
+        <v>0.1532116730378412</v>
       </c>
       <c r="K10">
-        <v>5.598100088894057</v>
+        <v>1.871982938775091</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.243815267618174</v>
+        <v>0.5252425246772816</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.071204734553305</v>
+        <v>2.356847562035739</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2366648143294725</v>
+        <v>0.07569751243225653</v>
       </c>
       <c r="D11">
-        <v>0.2109007300907706</v>
+        <v>0.2293180620887938</v>
       </c>
       <c r="E11">
-        <v>0.09542725425345466</v>
+        <v>0.1579679976980302</v>
       </c>
       <c r="F11">
-        <v>0.5757496903473225</v>
+        <v>1.067115070208644</v>
       </c>
       <c r="G11">
-        <v>0.3132293773409032</v>
+        <v>0.5252673879053447</v>
       </c>
       <c r="H11">
-        <v>0.2305902173736882</v>
+        <v>0.6611084905914879</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05986325995311148</v>
+        <v>0.1522599998518999</v>
       </c>
       <c r="K11">
-        <v>5.997200456727342</v>
+        <v>1.99830960368962</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.333586437925504</v>
+        <v>0.5522351947000033</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.097907111894983</v>
+        <v>2.34101455040863</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2430112446613037</v>
+        <v>0.07745592301635895</v>
       </c>
       <c r="D12">
-        <v>0.2152542412409559</v>
+        <v>0.2303094613213261</v>
       </c>
       <c r="E12">
-        <v>0.09683452499623968</v>
+        <v>0.1580432676107222</v>
       </c>
       <c r="F12">
-        <v>0.5831414436762685</v>
+        <v>1.065718041412481</v>
       </c>
       <c r="G12">
-        <v>0.3181208666500908</v>
+        <v>0.5242140604122056</v>
       </c>
       <c r="H12">
-        <v>0.2308535148945481</v>
+        <v>0.6594163941489626</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06013488713722026</v>
+        <v>0.1519140488595028</v>
       </c>
       <c r="K12">
-        <v>6.14859068199263</v>
+        <v>2.04608858929106</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.367664670114337</v>
+        <v>0.5624565166892523</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.108943356553141</v>
+        <v>2.33531366377585</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2416427617943242</v>
+        <v>0.07707712175698589</v>
       </c>
       <c r="D13">
-        <v>0.2143153908597384</v>
+        <v>0.230095494758416</v>
       </c>
       <c r="E13">
-        <v>0.096530168628707</v>
+        <v>0.158026552444241</v>
       </c>
       <c r="F13">
-        <v>0.5815334846487872</v>
+        <v>1.066013680014429</v>
       </c>
       <c r="G13">
-        <v>0.3170543703774342</v>
+        <v>0.5244373580929675</v>
       </c>
       <c r="H13">
-        <v>0.2307897409044415</v>
+        <v>0.6597781168642598</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06007469065175997</v>
+        <v>0.1519879136335192</v>
       </c>
       <c r="K13">
-        <v>6.115973627392805</v>
+        <v>2.035801161549784</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.360321349170221</v>
+        <v>0.5602551908890945</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.106524155143461</v>
+        <v>2.336528329115595</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.237186195525581</v>
+        <v>0.07584213461770162</v>
       </c>
       <c r="D14">
-        <v>0.2112583393409579</v>
+        <v>0.2293994217452848</v>
       </c>
       <c r="E14">
-        <v>0.09554245967339625</v>
+        <v>0.1579739628626129</v>
       </c>
       <c r="F14">
-        <v>0.5763506407778181</v>
+        <v>1.066997776438519</v>
       </c>
       <c r="G14">
-        <v>0.3136259699775081</v>
+        <v>0.5251791284538996</v>
       </c>
       <c r="H14">
-        <v>0.2306087105375667</v>
+        <v>0.6609680639940052</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05988484632142743</v>
+        <v>0.1522312490025612</v>
       </c>
       <c r="K14">
-        <v>6.009649891159995</v>
+        <v>2.002241591484051</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.336388310091436</v>
+        <v>0.5530761166408809</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.098796100152612</v>
+        <v>2.340539623019453</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2344612141783529</v>
+        <v>0.07508595086341074</v>
       </c>
       <c r="D15">
-        <v>0.209389405061458</v>
+        <v>0.2289743789804675</v>
       </c>
       <c r="E15">
-        <v>0.09494115729009778</v>
+        <v>0.1579432275782331</v>
       </c>
       <c r="F15">
-        <v>0.5732223946789787</v>
+        <v>1.06761589338786</v>
       </c>
       <c r="G15">
-        <v>0.3115636880065438</v>
+        <v>0.5256438885627972</v>
       </c>
       <c r="H15">
-        <v>0.230518326984793</v>
+        <v>0.6617048471901938</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05977348252007886</v>
+        <v>0.1523821783550616</v>
       </c>
       <c r="K15">
-        <v>5.944559031211043</v>
+        <v>1.981677726717976</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.321739985763415</v>
+        <v>0.5486786811282656</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.094185125796713</v>
+        <v>2.34303506581972</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2189153584744332</v>
+        <v>0.07075689088362935</v>
       </c>
       <c r="D16">
-        <v>0.1987325426803892</v>
+        <v>0.2265589589354846</v>
       </c>
       <c r="E16">
-        <v>0.09155042781117828</v>
+        <v>0.1577897519132776</v>
       </c>
       <c r="F16">
-        <v>0.5559855763717394</v>
+        <v>1.071392862355232</v>
       </c>
       <c r="G16">
-        <v>0.3003050133459197</v>
+        <v>0.5284664525289315</v>
       </c>
       <c r="H16">
-        <v>0.2303062711660573</v>
+        <v>0.6660481780263297</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05920871023020169</v>
+        <v>0.1532758848787736</v>
       </c>
       <c r="K16">
-        <v>5.572051197827363</v>
+        <v>1.863719203685037</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.237959454502402</v>
+        <v>0.523478491298377</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.069584947217948</v>
+        <v>2.357923480829527</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2094370787089304</v>
+        <v>0.0681050195957198</v>
       </c>
       <c r="D17">
-        <v>0.1922403979006617</v>
+        <v>0.2250953866446821</v>
       </c>
       <c r="E17">
-        <v>0.08951780228267481</v>
+        <v>0.1577158288326572</v>
       </c>
       <c r="F17">
-        <v>0.5460044766177319</v>
+        <v>1.07391923466237</v>
       </c>
       <c r="G17">
-        <v>0.2938776774891849</v>
+        <v>0.5303397898178233</v>
       </c>
       <c r="H17">
-        <v>0.2304402909721617</v>
+        <v>0.6688206904866618</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05892560258095969</v>
+        <v>0.1538498198213532</v>
       </c>
       <c r="K17">
-        <v>5.343932401986024</v>
+        <v>1.791254814902118</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.186696812701413</v>
+        <v>0.5080192223795592</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.056060343149284</v>
+        <v>2.367581029739711</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2040054974289234</v>
+        <v>0.06658115789831243</v>
       </c>
       <c r="D18">
-        <v>0.1885222297079707</v>
+        <v>0.2242602985358104</v>
       </c>
       <c r="E18">
-        <v>0.08836548810182521</v>
+        <v>0.1576807495932293</v>
       </c>
       <c r="F18">
-        <v>0.5404729111562219</v>
+        <v>1.075449190011305</v>
       </c>
       <c r="G18">
-        <v>0.2903494591690006</v>
+        <v>0.5314692776900714</v>
       </c>
       <c r="H18">
-        <v>0.2306110217847461</v>
+        <v>0.6704550386926655</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05878522504637118</v>
+        <v>0.1541893610465763</v>
       </c>
       <c r="K18">
-        <v>5.212855255463637</v>
+        <v>1.749539121086116</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.15725670706486</v>
+        <v>0.4991277306812378</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.048833884756732</v>
+        <v>2.373328069871036</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2021697701878935</v>
+        <v>0.06606544950081172</v>
       </c>
       <c r="D19">
-        <v>0.187265988063487</v>
+        <v>0.22397870886671</v>
       </c>
       <c r="E19">
-        <v>0.08797815939538722</v>
+        <v>0.1576701505730291</v>
       </c>
       <c r="F19">
-        <v>0.5386351639412439</v>
+        <v>1.075980399196602</v>
       </c>
       <c r="G19">
-        <v>0.2891831229875734</v>
+        <v>0.5318606222236539</v>
       </c>
       <c r="H19">
-        <v>0.2306845968570386</v>
+        <v>0.6710152123568562</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0587414764861407</v>
+        <v>0.1543059427057152</v>
       </c>
       <c r="K19">
-        <v>5.168495657245046</v>
+        <v>1.73540879010352</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.147296081039713</v>
+        <v>0.4961172885814591</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.046479879946304</v>
+        <v>2.3753069144514</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2104439478273434</v>
+        <v>0.06838716846735338</v>
       </c>
       <c r="D20">
-        <v>0.1929298306947231</v>
+        <v>0.2252504915547036</v>
       </c>
       <c r="E20">
-        <v>0.08973242581506824</v>
+        <v>0.1577229282415331</v>
       </c>
       <c r="F20">
-        <v>0.5470451282224644</v>
+        <v>1.073642342385369</v>
       </c>
       <c r="G20">
-        <v>0.2945442593144563</v>
+        <v>0.5301349861715678</v>
       </c>
       <c r="H20">
-        <v>0.2304162568492956</v>
+        <v>0.6685214453067729</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0589533972175964</v>
+        <v>0.1537877474530198</v>
       </c>
       <c r="K20">
-        <v>5.368202125035339</v>
+        <v>1.798972528658965</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.192149072940325</v>
+        <v>0.5096648641109454</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.05744236061517</v>
+        <v>2.36653306102636</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.238494189281397</v>
+        <v>0.07620482162614906</v>
       </c>
       <c r="D21">
-        <v>0.212155515014345</v>
+        <v>0.2296035999019637</v>
       </c>
       <c r="E21">
-        <v>0.0958317992442872</v>
+        <v>0.1579891018473916</v>
       </c>
       <c r="F21">
-        <v>0.5778632472783585</v>
+        <v>1.066705528412029</v>
       </c>
       <c r="G21">
-        <v>0.3146250698379163</v>
+        <v>0.5249590836432532</v>
       </c>
       <c r="H21">
-        <v>0.2306575904571275</v>
+        <v>0.6606168998925313</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05993957768411207</v>
+        <v>0.1521593838026831</v>
       </c>
       <c r="K21">
-        <v>6.040872248269977</v>
+        <v>2.012100451789593</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.343415631215734</v>
+        <v>0.5551847952243776</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.101040311807083</v>
+        <v>2.339353402660691</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2570372323456667</v>
+        <v>0.08132671992625262</v>
       </c>
       <c r="D22">
-        <v>0.2248795273246174</v>
+        <v>0.2325078550610584</v>
       </c>
       <c r="E22">
-        <v>0.09998182767740005</v>
+        <v>0.1582291984123749</v>
       </c>
       <c r="F22">
-        <v>0.6000575369260446</v>
+        <v>1.062857834109536</v>
       </c>
       <c r="G22">
-        <v>0.3294162056762531</v>
+        <v>0.5220417051451278</v>
       </c>
       <c r="H22">
-        <v>0.2317236513601131</v>
+        <v>0.6558046203546581</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0608021137438044</v>
+        <v>0.1511792547930746</v>
       </c>
       <c r="K22">
-        <v>6.482042697137786</v>
+        <v>2.151051474068595</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.44277307876807</v>
+        <v>0.5849331757904963</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.134961554942464</v>
+        <v>2.323308260375256</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2471195840205525</v>
+        <v>0.07859191630960538</v>
       </c>
       <c r="D23">
-        <v>0.2180730838115608</v>
+        <v>0.2309524069445388</v>
       </c>
       <c r="E23">
-        <v>0.09775118294935936</v>
+        <v>0.1580950081644303</v>
       </c>
       <c r="F23">
-        <v>0.5880146291989305</v>
+        <v>1.064848585063501</v>
       </c>
       <c r="G23">
-        <v>0.3213609727614823</v>
+        <v>0.5235560687179657</v>
       </c>
       <c r="H23">
-        <v>0.2310677964173493</v>
+        <v>0.6583406268412801</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0603209031994858</v>
+        <v>0.1516946662743628</v>
       </c>
       <c r="K23">
-        <v>6.246421464745708</v>
+        <v>2.076922758357796</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.389693826454248</v>
+        <v>0.5690562345659629</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.116334879949619</v>
+        <v>2.331714329429843</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2099886877975052</v>
+        <v>0.06825960667428888</v>
       </c>
       <c r="D24">
-        <v>0.19261809391881</v>
+        <v>0.2251803488729678</v>
       </c>
       <c r="E24">
-        <v>0.08963534399378403</v>
+        <v>0.1577196954849107</v>
       </c>
       <c r="F24">
-        <v>0.546574007846111</v>
+        <v>1.073767283960606</v>
       </c>
       <c r="G24">
-        <v>0.2942423794724149</v>
+        <v>0.5302274144498824</v>
       </c>
       <c r="H24">
-        <v>0.2304268316849374</v>
+        <v>0.6686566082319843</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05894076173343876</v>
+        <v>0.1538157805362914</v>
       </c>
       <c r="K24">
-        <v>5.357229564947033</v>
+        <v>1.795483521229926</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.189684009108817</v>
+        <v>0.5089208811288017</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.056815845935688</v>
+        <v>2.367006240997696</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1706884315618424</v>
+        <v>0.05716899837759115</v>
       </c>
       <c r="D25">
-        <v>0.1657617184926181</v>
+        <v>0.2192114949909012</v>
       </c>
       <c r="E25">
-        <v>0.08151619746835692</v>
+        <v>0.1575993397685451</v>
       </c>
       <c r="F25">
-        <v>0.5097808193399658</v>
+        <v>1.086324825071799</v>
       </c>
       <c r="G25">
-        <v>0.2713543037081223</v>
+        <v>0.5394099294658758</v>
       </c>
       <c r="H25">
-        <v>0.2332786019794497</v>
+        <v>0.6813005207687013</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05830166443253049</v>
+        <v>0.1564641562595419</v>
       </c>
       <c r="K25">
-        <v>4.40290530972203</v>
+        <v>1.490536218305579</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9756062251095869</v>
+        <v>0.4440676642826205</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.013486187260213</v>
+        <v>2.412421579825462</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_75/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_75/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04904822163325662</v>
+        <v>0.1422364152237066</v>
       </c>
       <c r="D2">
-        <v>0.2150398836567859</v>
+        <v>0.1464173325019118</v>
       </c>
       <c r="E2">
-        <v>0.1577557748486988</v>
+        <v>0.0760138191341504</v>
       </c>
       <c r="F2">
-        <v>1.098088969301038</v>
+        <v>0.4885635899741416</v>
       </c>
       <c r="G2">
-        <v>0.5478667889177586</v>
+        <v>0.2591655039761562</v>
       </c>
       <c r="H2">
-        <v>0.6919128742687448</v>
+        <v>0.2380640458653573</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1587236157017031</v>
+        <v>0.05847384775253417</v>
       </c>
       <c r="K2">
-        <v>1.264877204211814</v>
+        <v>3.702417823059079</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3963371515211236</v>
+        <v>0.8189125209890946</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.452149567775407</v>
+        <v>0.9970589504928284</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04357218035039523</v>
+        <v>0.1231828319946828</v>
       </c>
       <c r="D3">
-        <v>0.2123531160951586</v>
+        <v>0.1335361896791767</v>
       </c>
       <c r="E3">
-        <v>0.1580148820677998</v>
+        <v>0.07254934462801543</v>
       </c>
       <c r="F3">
-        <v>1.107628383791486</v>
+        <v>0.4774249103464498</v>
       </c>
       <c r="G3">
-        <v>0.554649574212128</v>
+        <v>0.2534447535201068</v>
       </c>
       <c r="H3">
-        <v>0.6999168003676317</v>
+        <v>0.2428175832730162</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1604476692235615</v>
+        <v>0.05895129087562268</v>
       </c>
       <c r="K3">
-        <v>1.111272602920906</v>
+        <v>3.228178148055349</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.364008585198242</v>
+        <v>0.7130764980103237</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.482981324815299</v>
+        <v>0.994451172787933</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04022327421418481</v>
+        <v>0.1115742040749552</v>
       </c>
       <c r="D4">
-        <v>0.2107731110297237</v>
+        <v>0.1257280588624639</v>
       </c>
       <c r="E4">
-        <v>0.1582495810300522</v>
+        <v>0.07054276887939892</v>
       </c>
       <c r="F4">
-        <v>1.114257136937795</v>
+        <v>0.4720540996583367</v>
       </c>
       <c r="G4">
-        <v>0.5593307832977743</v>
+        <v>0.2510715032146749</v>
       </c>
       <c r="H4">
-        <v>0.7052314136264073</v>
+        <v>0.2464306317134728</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1616012591945655</v>
+        <v>0.05941003126482514</v>
       </c>
       <c r="K4">
-        <v>1.016639218084151</v>
+        <v>2.936977775306758</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3441705635275412</v>
+        <v>0.6482024232780503</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.503834580801595</v>
+        <v>0.9967084299659064</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0388619440559097</v>
+        <v>0.1068632373567198</v>
       </c>
       <c r="D5">
-        <v>0.2101468542831881</v>
+        <v>0.1225699611015472</v>
       </c>
       <c r="E5">
-        <v>0.1583642538953178</v>
+        <v>0.06975403321356666</v>
       </c>
       <c r="F5">
-        <v>1.117152235090536</v>
+        <v>0.4702164231729</v>
       </c>
       <c r="G5">
-        <v>0.561367998431507</v>
+        <v>0.2503749129635935</v>
       </c>
       <c r="H5">
-        <v>0.7074977416082291</v>
+        <v>0.2480704339833935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1620952355367749</v>
+        <v>0.05963686849758787</v>
       </c>
       <c r="K5">
-        <v>0.9779976586054886</v>
+        <v>2.818274237620784</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3360899392158743</v>
+        <v>0.621784559295925</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.512815109786331</v>
+        <v>0.9985497015572946</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03863610030231257</v>
+        <v>0.1060820843375438</v>
       </c>
       <c r="D6">
-        <v>0.2100439308608841</v>
+        <v>0.1220469523600798</v>
       </c>
       <c r="E6">
-        <v>0.1583844452415111</v>
+        <v>0.06962477451581783</v>
       </c>
       <c r="F6">
-        <v>1.117644665458343</v>
+        <v>0.4699319586225172</v>
       </c>
       <c r="G6">
-        <v>0.5617140940216601</v>
+        <v>0.2502751316591656</v>
       </c>
       <c r="H6">
-        <v>0.7078801370699139</v>
+        <v>0.2483526333437212</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1621787017868748</v>
+        <v>0.05967689494082506</v>
       </c>
       <c r="K6">
-        <v>0.9715766438862659</v>
+        <v>2.798560446028546</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3347483872520982</v>
+        <v>0.6173987873839124</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.514335448994615</v>
+        <v>0.9989097116436341</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04020490116032249</v>
+        <v>0.1115105947487933</v>
       </c>
       <c r="D7">
-        <v>0.2107645937025637</v>
+        <v>0.1256853734271886</v>
       </c>
       <c r="E7">
-        <v>0.1582510504662409</v>
+        <v>0.07053201622059646</v>
       </c>
       <c r="F7">
-        <v>1.114295396679452</v>
+        <v>0.472027918541059</v>
       </c>
       <c r="G7">
-        <v>0.5593577336190805</v>
+        <v>0.2510610339333539</v>
       </c>
       <c r="H7">
-        <v>0.7052615709365142</v>
+        <v>0.2464520778309023</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1616078244641592</v>
+        <v>0.05941293117209412</v>
       </c>
       <c r="K7">
-        <v>1.016118395500115</v>
+        <v>2.935377089896861</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3440615703729506</v>
+        <v>0.6478460775302466</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.503953742097536</v>
+        <v>0.996729594008599</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04715730191674083</v>
+        <v>0.1356460834020083</v>
       </c>
       <c r="D8">
-        <v>0.2140990743388187</v>
+        <v>0.1419539668309397</v>
       </c>
       <c r="E8">
-        <v>0.1578294342764046</v>
+        <v>0.07479338491757659</v>
       </c>
       <c r="F8">
-        <v>1.101217925346134</v>
+        <v>0.4844069408599054</v>
       </c>
       <c r="G8">
-        <v>0.5500980989123718</v>
+        <v>0.2569466767728272</v>
       </c>
       <c r="H8">
-        <v>0.6945895453361786</v>
+        <v>0.2395545433597164</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.159298341406604</v>
+        <v>0.05860302809551143</v>
       </c>
       <c r="K8">
-        <v>1.211982202247157</v>
+        <v>3.538882302630157</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3851881218608995</v>
+        <v>0.782392032796956</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.462380905176076</v>
+        <v>0.9953288512825935</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06089776901349353</v>
+        <v>0.1838412048139162</v>
       </c>
       <c r="D9">
-        <v>0.2211875795123746</v>
+        <v>0.1747360300617515</v>
       </c>
       <c r="E9">
-        <v>0.1576018437688269</v>
+        <v>0.08417274685438869</v>
       </c>
       <c r="F9">
-        <v>1.081703099948257</v>
+        <v>0.52120309938514</v>
       </c>
       <c r="G9">
-        <v>0.5360525144575945</v>
+        <v>0.2782880862961363</v>
       </c>
       <c r="H9">
-        <v>0.6768389332436158</v>
+        <v>0.2318777099896536</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1555239397082175</v>
+        <v>0.05841148388915229</v>
       </c>
       <c r="K9">
-        <v>1.59343712896964</v>
+        <v>4.723909240360399</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4659111152231787</v>
+        <v>1.047542431114344</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.396144412355426</v>
+        <v>1.025519897333425</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07105968062690238</v>
+        <v>0.219999720906273</v>
       </c>
       <c r="D10">
-        <v>0.2267268712667772</v>
+        <v>0.1994755573995377</v>
       </c>
       <c r="E10">
-        <v>0.1577991947337658</v>
+        <v>0.0917846872633703</v>
       </c>
       <c r="F10">
-        <v>1.071115004803048</v>
+        <v>0.557153471158216</v>
       </c>
       <c r="G10">
-        <v>0.5282597451557507</v>
+        <v>0.3010618090325039</v>
       </c>
       <c r="H10">
-        <v>0.6657371925718962</v>
+        <v>0.2303039122968045</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1532116730378412</v>
+        <v>0.05924411718959277</v>
       </c>
       <c r="K10">
-        <v>1.871982938775091</v>
+        <v>5.598100088894</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5252425246772816</v>
+        <v>1.243815267618189</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.356847562035739</v>
+        <v>1.071204734553248</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07569751243225653</v>
+        <v>0.2366648143294867</v>
       </c>
       <c r="D11">
-        <v>0.2293180620887938</v>
+        <v>0.2109007300907706</v>
       </c>
       <c r="E11">
-        <v>0.1579679976980302</v>
+        <v>0.09542725425345822</v>
       </c>
       <c r="F11">
-        <v>1.067115070208644</v>
+        <v>0.5757496903473296</v>
       </c>
       <c r="G11">
-        <v>0.5252673879053447</v>
+        <v>0.3132293773409032</v>
       </c>
       <c r="H11">
-        <v>0.6611084905914879</v>
+        <v>0.2305902173736882</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1522599998518999</v>
+        <v>0.05986325995300845</v>
       </c>
       <c r="K11">
-        <v>1.99830960368962</v>
+        <v>5.997200456727342</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5522351947000033</v>
+        <v>1.333586437925504</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.34101455040863</v>
+        <v>1.097907111894955</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07745592301635895</v>
+        <v>0.2430112446609769</v>
       </c>
       <c r="D12">
-        <v>0.2303094613213261</v>
+        <v>0.2152542412410696</v>
       </c>
       <c r="E12">
-        <v>0.1580432676107222</v>
+        <v>0.09683452499624323</v>
       </c>
       <c r="F12">
-        <v>1.065718041412481</v>
+        <v>0.5831414436762827</v>
       </c>
       <c r="G12">
-        <v>0.5242140604122056</v>
+        <v>0.3181208666500339</v>
       </c>
       <c r="H12">
-        <v>0.6594163941489626</v>
+        <v>0.2308535148946618</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1519140488595028</v>
+        <v>0.06013488713729132</v>
       </c>
       <c r="K12">
-        <v>2.04608858929106</v>
+        <v>6.148590681992516</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5624565166892523</v>
+        <v>1.367664670114323</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.33531366377585</v>
+        <v>1.108943356553141</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07707712175698589</v>
+        <v>0.2416427617940968</v>
       </c>
       <c r="D13">
-        <v>0.230095494758416</v>
+        <v>0.2143153908595821</v>
       </c>
       <c r="E13">
-        <v>0.158026552444241</v>
+        <v>0.09653016862872121</v>
       </c>
       <c r="F13">
-        <v>1.066013680014429</v>
+        <v>0.5815334846487943</v>
       </c>
       <c r="G13">
-        <v>0.5244373580929675</v>
+        <v>0.3170543703774911</v>
       </c>
       <c r="H13">
-        <v>0.6597781168642598</v>
+        <v>0.2307897409044415</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1519879136335192</v>
+        <v>0.06007469065184168</v>
       </c>
       <c r="K13">
-        <v>2.035801161549784</v>
+        <v>6.115973627392918</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5602551908890945</v>
+        <v>1.360321349170249</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.336528329115595</v>
+        <v>1.106524155143489</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07584213461770162</v>
+        <v>0.2371861955253536</v>
       </c>
       <c r="D14">
-        <v>0.2293994217452848</v>
+        <v>0.2112583393409579</v>
       </c>
       <c r="E14">
-        <v>0.1579739628626129</v>
+        <v>0.09554245967337849</v>
       </c>
       <c r="F14">
-        <v>1.066997776438519</v>
+        <v>0.5763506407778323</v>
       </c>
       <c r="G14">
-        <v>0.5251791284538996</v>
+        <v>0.313625969977565</v>
       </c>
       <c r="H14">
-        <v>0.6609680639940052</v>
+        <v>0.2306087105376804</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1522312490025612</v>
+        <v>0.05988484632143098</v>
       </c>
       <c r="K14">
-        <v>2.002241591484051</v>
+        <v>6.009649891160052</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5530761166408809</v>
+        <v>1.336388310091422</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.340539623019453</v>
+        <v>1.098796100152668</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07508595086341074</v>
+        <v>0.2344612141782818</v>
       </c>
       <c r="D15">
-        <v>0.2289743789804675</v>
+        <v>0.209389405061458</v>
       </c>
       <c r="E15">
-        <v>0.1579432275782331</v>
+        <v>0.09494115729009778</v>
       </c>
       <c r="F15">
-        <v>1.06761589338786</v>
+        <v>0.5732223946789503</v>
       </c>
       <c r="G15">
-        <v>0.5256438885627972</v>
+        <v>0.3115636880065438</v>
       </c>
       <c r="H15">
-        <v>0.6617048471901938</v>
+        <v>0.230518326984793</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1523821783550616</v>
+        <v>0.05977348252009307</v>
       </c>
       <c r="K15">
-        <v>1.981677726717976</v>
+        <v>5.944559031211099</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5486786811282656</v>
+        <v>1.321739985763401</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.34303506581972</v>
+        <v>1.094185125796713</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07075689088362935</v>
+        <v>0.2189153584745895</v>
       </c>
       <c r="D16">
-        <v>0.2265589589354846</v>
+        <v>0.1987325426805171</v>
       </c>
       <c r="E16">
-        <v>0.1577897519132776</v>
+        <v>0.0915504278111996</v>
       </c>
       <c r="F16">
-        <v>1.071392862355232</v>
+        <v>0.5559855763717607</v>
       </c>
       <c r="G16">
-        <v>0.5284664525289315</v>
+        <v>0.3003050133459624</v>
       </c>
       <c r="H16">
-        <v>0.6660481780263297</v>
+        <v>0.2303062711661568</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1532758848787736</v>
+        <v>0.05920871023027985</v>
       </c>
       <c r="K16">
-        <v>1.863719203685037</v>
+        <v>5.572051197827591</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.523478491298377</v>
+        <v>1.23795945450243</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.357923480829527</v>
+        <v>1.069584947218033</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0681050195957198</v>
+        <v>0.2094370787089304</v>
       </c>
       <c r="D17">
-        <v>0.2250953866446821</v>
+        <v>0.1922403979007754</v>
       </c>
       <c r="E17">
-        <v>0.1577158288326572</v>
+        <v>0.0895178022826677</v>
       </c>
       <c r="F17">
-        <v>1.07391923466237</v>
+        <v>0.5460044766177461</v>
       </c>
       <c r="G17">
-        <v>0.5303397898178233</v>
+        <v>0.2938776774892489</v>
       </c>
       <c r="H17">
-        <v>0.6688206904866618</v>
+        <v>0.2304402909721617</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1538498198213532</v>
+        <v>0.05892560258100943</v>
       </c>
       <c r="K17">
-        <v>1.791254814902118</v>
+        <v>5.343932401985967</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5080192223795592</v>
+        <v>1.186696812701371</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.367581029739711</v>
+        <v>1.05606034314934</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06658115789831243</v>
+        <v>0.2040054974284686</v>
       </c>
       <c r="D18">
-        <v>0.2242602985358104</v>
+        <v>0.1885222297080276</v>
       </c>
       <c r="E18">
-        <v>0.1576807495932293</v>
+        <v>0.08836548810183942</v>
       </c>
       <c r="F18">
-        <v>1.075449190011305</v>
+        <v>0.5404729111562077</v>
       </c>
       <c r="G18">
-        <v>0.5314692776900714</v>
+        <v>0.2903494591689437</v>
       </c>
       <c r="H18">
-        <v>0.6704550386926655</v>
+        <v>0.2306110217847461</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1541893610465763</v>
+        <v>0.05878522504643513</v>
       </c>
       <c r="K18">
-        <v>1.749539121086116</v>
+        <v>5.212855255463751</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4991277306812378</v>
+        <v>1.157256707064874</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.373328069871036</v>
+        <v>1.048833884756789</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06606544950081172</v>
+        <v>0.2021697701876661</v>
       </c>
       <c r="D19">
-        <v>0.22397870886671</v>
+        <v>0.1872659880632455</v>
       </c>
       <c r="E19">
-        <v>0.1576701505730291</v>
+        <v>0.08797815939538722</v>
       </c>
       <c r="F19">
-        <v>1.075980399196602</v>
+        <v>0.5386351639412439</v>
       </c>
       <c r="G19">
-        <v>0.5318606222236539</v>
+        <v>0.2891831229875237</v>
       </c>
       <c r="H19">
-        <v>0.6710152123568562</v>
+        <v>0.2306845968570457</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1543059427057152</v>
+        <v>0.05874147648603767</v>
       </c>
       <c r="K19">
-        <v>1.73540879010352</v>
+        <v>5.168495657245046</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4961172885814591</v>
+        <v>1.147296081039741</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.3753069144514</v>
+        <v>1.046479879946318</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06838716846735338</v>
+        <v>0.2104439478267892</v>
       </c>
       <c r="D20">
-        <v>0.2252504915547036</v>
+        <v>0.19292983069478</v>
       </c>
       <c r="E20">
-        <v>0.1577229282415331</v>
+        <v>0.08973242581505048</v>
       </c>
       <c r="F20">
-        <v>1.073642342385369</v>
+        <v>0.5470451282224502</v>
       </c>
       <c r="G20">
-        <v>0.5301349861715678</v>
+        <v>0.2945442593144207</v>
       </c>
       <c r="H20">
-        <v>0.6685214453067729</v>
+        <v>0.2304162568494093</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1537877474530198</v>
+        <v>0.05895339721757153</v>
       </c>
       <c r="K20">
-        <v>1.798972528658965</v>
+        <v>5.368202125035396</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5096648641109454</v>
+        <v>1.192149072940339</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.36653306102636</v>
+        <v>1.057442360615113</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07620482162614906</v>
+        <v>0.2384941892810559</v>
       </c>
       <c r="D21">
-        <v>0.2296035999019637</v>
+        <v>0.2121555150142456</v>
       </c>
       <c r="E21">
-        <v>0.1579891018473916</v>
+        <v>0.0958317992442872</v>
       </c>
       <c r="F21">
-        <v>1.066705528412029</v>
+        <v>0.5778632472783585</v>
       </c>
       <c r="G21">
-        <v>0.5249590836432532</v>
+        <v>0.3146250698378594</v>
       </c>
       <c r="H21">
-        <v>0.6606168998925313</v>
+        <v>0.2306575904571275</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1521593838026831</v>
+        <v>0.05993957768420799</v>
       </c>
       <c r="K21">
-        <v>2.012100451789593</v>
+        <v>6.04087224826992</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5551847952243776</v>
+        <v>1.343415631215706</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.339353402660691</v>
+        <v>1.101040311807083</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08132671992625262</v>
+        <v>0.2570372323457519</v>
       </c>
       <c r="D22">
-        <v>0.2325078550610584</v>
+        <v>0.2248795273246174</v>
       </c>
       <c r="E22">
-        <v>0.1582291984123749</v>
+        <v>0.09998182767742492</v>
       </c>
       <c r="F22">
-        <v>1.062857834109536</v>
+        <v>0.6000575369260446</v>
       </c>
       <c r="G22">
-        <v>0.5220417051451278</v>
+        <v>0.3294162056762673</v>
       </c>
       <c r="H22">
-        <v>0.6558046203546581</v>
+        <v>0.231723651360241</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1511792547930746</v>
+        <v>0.06080211374374045</v>
       </c>
       <c r="K22">
-        <v>2.151051474068595</v>
+        <v>6.482042697137615</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5849331757904963</v>
+        <v>1.44277307876807</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.323308260375256</v>
+        <v>1.134961554942493</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07859191630960538</v>
+        <v>0.2471195840205809</v>
       </c>
       <c r="D23">
-        <v>0.2309524069445388</v>
+        <v>0.2180730838115608</v>
       </c>
       <c r="E23">
-        <v>0.1580950081644303</v>
+        <v>0.09775118294939134</v>
       </c>
       <c r="F23">
-        <v>1.064848585063501</v>
+        <v>0.5880146291989163</v>
       </c>
       <c r="G23">
-        <v>0.5235560687179657</v>
+        <v>0.3213609727614681</v>
       </c>
       <c r="H23">
-        <v>0.6583406268412801</v>
+        <v>0.2310677964172214</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1516946662743628</v>
+        <v>0.06032090319947514</v>
       </c>
       <c r="K23">
-        <v>2.076922758357796</v>
+        <v>6.246421464745538</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5690562345659629</v>
+        <v>1.389693826454248</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.331714329429843</v>
+        <v>1.116334879949619</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06825960667428888</v>
+        <v>0.2099886877975194</v>
       </c>
       <c r="D24">
-        <v>0.2251803488729678</v>
+        <v>0.1926180939187248</v>
       </c>
       <c r="E24">
-        <v>0.1577196954849107</v>
+        <v>0.08963534399378759</v>
       </c>
       <c r="F24">
-        <v>1.073767283960606</v>
+        <v>0.5465740078460968</v>
       </c>
       <c r="G24">
-        <v>0.5302274144498824</v>
+        <v>0.2942423794724149</v>
       </c>
       <c r="H24">
-        <v>0.6686566082319843</v>
+        <v>0.2304268316850511</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1538157805362914</v>
+        <v>0.05894076173344232</v>
       </c>
       <c r="K24">
-        <v>1.795483521229926</v>
+        <v>5.35722956494709</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5089208811288017</v>
+        <v>1.189684009108817</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.367006240997696</v>
+        <v>1.056815845935688</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05716899837759115</v>
+        <v>0.1706884315618424</v>
       </c>
       <c r="D25">
-        <v>0.2192114949909012</v>
+        <v>0.1657617184924902</v>
       </c>
       <c r="E25">
-        <v>0.1575993397685451</v>
+        <v>0.08151619746836047</v>
       </c>
       <c r="F25">
-        <v>1.086324825071799</v>
+        <v>0.50978081933998</v>
       </c>
       <c r="G25">
-        <v>0.5394099294658758</v>
+        <v>0.2713543037080086</v>
       </c>
       <c r="H25">
-        <v>0.6813005207687013</v>
+        <v>0.2332786019794497</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1564641562595419</v>
+        <v>0.05830166443256601</v>
       </c>
       <c r="K25">
-        <v>1.490536218305579</v>
+        <v>4.402905309722087</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4440676642826205</v>
+        <v>0.9756062251096012</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.412421579825462</v>
+        <v>1.013486187260256</v>
       </c>
     </row>
   </sheetData>
